--- a/Input data.xlsx
+++ b/Input data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5251414_ad_unsw_edu_au/Documents/PhD/Paper/New model development/Final model and data/Data for upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5251414_ad_unsw_edu_au/Documents/PhD/Paper/New model development/Final model and data/Data for upload/Github upload/EG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="8_{D06F6728-A345-4914-8E4B-EAA8AFC3E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF3135F7-D6B2-4328-B724-6E1B552FAEA1}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{D06F6728-A345-4914-8E4B-EAA8AFC3E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D717E2-B52C-4BEE-A12D-7DD8B06BFAD4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,31 +81,31 @@
     <t>Borehole wall strength (MPa)</t>
   </si>
   <si>
-    <t>Herrick, C. G., &amp; Haimson, B. C. (1994). Modeling of Episodic Failure Leading to Borehole Breakouts in Alabama Limestone. Paper presented at the 1st North American Rock Mechanics Symposium, Austin, Texas.</t>
+    <t>Herrick, C. G., Haimson, B. C., 1994. Modeling of Episodic Failure Leading to Borehole Breakouts in Alabama Limestone. Paper presented at the 1st North American Rock Mechanics Symposium, Austin, Texas.</t>
   </si>
   <si>
-    <t>Haimson, B., &amp; Lee, H. (2004). Borehole breakouts and compaction bands in two high-porosity sandstones. International Journal of Rock Mechanics and Mining Sciences, 41(2), 287–301. https://doi.org/10.1016/j.ijrmms.2003.09.001</t>
+    <t>Haimson, B., Lee, H., 2004. Borehole breakouts and compaction bands in two high-porosity sandstones. Int. J. Rock Mech. Min. Sci. 41, 287–301. https://doi.org/10.1016/j.ijrmms.2003.09.001</t>
   </si>
   <si>
-    <t>Lee, H., Moon, T., &amp; Haimson, B. C. (2016). Borehole Breakouts Induced in Arkosic Sandstones and a Discrete Element Analysis. Rock Mechanics and Rock Engineering, 49(4), 1369–1388. https://doi.org/10.1007/s00603-015-0812-0</t>
+    <t>Lee, H., Moon, T., Haimson, B.C., 2016. Borehole Breakouts Induced in Arkosic Sandstones and a Discrete Element Analysis. Rock Mech. Rock Eng. 49, 1369–1388. https://doi.org/10.1007/s00603-015-0812-0</t>
   </si>
   <si>
-    <t>Song, I. (1998). Borehole breakouts and core disking in Westerly granite: Mechanisms of formation and relationship to in situ stress, (Doctoral dissertation). University of Wisconsin-Madison.</t>
+    <t>Song, I., 1998. Borehole breakouts and core disking in Westerly granite: mechanisms of formation and relationship to in situ stress. Dissertation. University of Wisconsin-Madison, Wisconsin.</t>
   </si>
   <si>
-    <t>Xiang, Z., Oh, J., Si, G., &amp; Canbulat, I. (2024). Parametric analysis of borehole breakout and spalling phenomena: An experimental investigation. Rock Mechanics and Rock Engineering, (Manuscript accepted).</t>
+    <t>Xiang, Z., Oh, J., Si, G., Canbulat, I., 2024a. Parametric analysis of borehole breakout and spalling phenomena: an experimental investigation. Rock Mech. Rock Eng. (Manuscript accepted).</t>
   </si>
   <si>
-    <t>Martin, C. D. (1997). Seventeenth Canadian Geotechnical Colloquium: The effect of cohesion loss and stress path on brittle rock strength. Canadian Geotechnical Journal, 34(5), 698–725. https://doi.org/10.1139/t97-030</t>
+    <t>Martin, C.D., 1997. Seventeenth Canadian Geotechnical Colloquium: The effect of cohesion loss and stress path on brittle rock strength. Can. Geotech. J. 34, 698–725. https://doi.org/10.1139/t97-030</t>
   </si>
   <si>
-    <t>Xiang, Z., Moon, T., Oh, J., Si, G., &amp; Canbulat, I. (2023). Analytical investigations of in situ stress inversion from borehole breakout geometries. Journal of Rock Mechanics and Geotechnical Engineering. https://doi.org/10.1016/j.jrmge.2023.08.018</t>
+    <t>Xiang, Z., Moon, T., Oh, J., Si, G., Canbulat, I., 2023b. Analytical investigations of in situ stress inversion from borehole breakout geometries. J. Rock Mech. Geotech. Eng. https://doi.org/10.1016/j.jrmge.2023.08.018</t>
   </si>
   <si>
-    <t>Lin, H., Kang, W.-H., Oh, J., &amp; Canbulat, I. (2020). Estimation of in-situ maximum horizontal principal stress magnitudes from borehole breakout data using machine learning. International Journal of Rock Mechanics and Mining Sciences, 126, 104199. https://doi.org/10.1016/j.ijrmms.2019.104199</t>
+    <t>Lin, H., Kang, W.-H., Oh, J., Canbulat, I., 2020a. Estimation of in-situ maximum horizontal principal stress magnitudes from borehole breakout data using machine learning. Int. J. Rock Mech. Min. Sci. 126, 104199. https://doi.org/10.1016/j.ijrmms.2019.104199</t>
   </si>
   <si>
-    <t>LeRiche, A. C. (2017). Stress estimation from borehole scans for prediction of excavation overbreak in brittle rock, (M.A.Sc. dissertation). Kingston, Ontario, Canada. Queen’s University.</t>
+    <t>LeRiche, A.C., 2017. Stress estimation from borehole scans for prediction of excavation overbreak in brittle rock. Dissertation. Queen’s University, Kingston, Ontario, Canada.</t>
   </si>
 </sst>
 </file>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0BB531-E5D3-4474-A792-E027642C7C36}">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3348,7 @@
       <c r="D126">
         <v>20</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>63.833333333333336</v>
       </c>
       <c r="F126" s="2">
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1B30CD-9CB4-409D-82BC-2A237AD4390E}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,7 +5060,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5218,7 +5218,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5792,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB6894E-DC47-4ACA-B49E-B2DF356C7527}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6210,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F211DB43-1DBD-414F-9AC6-E2E50DAE43AE}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6757,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971847A4-D0CC-4614-93FC-31C4BC949858}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8240,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C300FB3B-EE08-4C93-8ECA-FE4734995C16}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8717,7 +8717,7 @@
       <c r="E18">
         <v>20</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>63.833333333333336</v>
       </c>
       <c r="G18" s="2">
@@ -9230,8 +9230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2741A1-8508-48DE-A235-24C437D8F838}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,8 +10318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B207A2-B684-439E-89DF-7EEBDA24A299}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10397,8 +10397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927327BB-F379-43B0-B254-B0D58975597B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10533,15 +10533,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DF36AAE048EDE84BAF19B53703615B6F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5dafad11a092b4294c7e32f7716432b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f061828c-37f2-4d82-ab01-a22347f5f48d" xmlns:ns4="c5ec91c2-be8d-4aee-a0aa-fb9a0692012f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8327e540c3c90a903b427810047f86e0" ns3:_="" ns4:_="">
     <xsd:import namespace="f061828c-37f2-4d82-ab01-a22347f5f48d"/>
@@ -10782,6 +10773,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{771E4222-E1DC-4976-BC0B-3428587A4537}">
   <ds:schemaRefs>
@@ -10800,14 +10800,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3513954-208F-4673-B27D-E4158C4A6284}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A682F9A-190D-4C84-B0C6-D9AF20371EFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10824,4 +10816,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3513954-208F-4673-B27D-E4158C4A6284}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>